--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3664.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3664.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.470722251221513</v>
+        <v>0.9549537301063538</v>
       </c>
       <c r="B1">
-        <v>2.588130652359494</v>
+        <v>1.15474259853363</v>
       </c>
       <c r="C1">
-        <v>8.244682721285551</v>
+        <v>0.9737921953201294</v>
       </c>
       <c r="D1">
-        <v>2.099082974651214</v>
+        <v>0.9063471555709839</v>
       </c>
       <c r="E1">
-        <v>0.9227752520074258</v>
+        <v>0.9425735473632812</v>
       </c>
     </row>
   </sheetData>
